--- a/testSaltCMS.xlsx
+++ b/testSaltCMS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fendyridwan/Documents/Project/SaltProject/SaltMediaCMS/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="117">
   <si>
     <t>Module</t>
   </si>
@@ -356,12 +356,64 @@
   <si>
     <t>User is not able to login with invalid password</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/A_001_LoginwithValidCredential.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/A_002_LoginwithInvalidEmail.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/A_003_LoginwithInvalidPassword.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/C_003_EditSeriesPlaylist.jpg</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/B_001_displayOfListPage.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/B_002_CreateNewKeyPage.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/B_004_editAppPage.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/B_005_deleteAppPage.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/C_001_DisplayofPlaylistList.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/I_002_CreateNewPackage.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/I_003_SelectPackageFromList.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/I_004_EditPackage.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/C_002_CreateNewSeriesPlaylist.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/C_004_DeleteSeriesPlaylist.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/C_007_DeleteMoviesPlaylist.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -923,13 +975,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.83203125" style="2" collapsed="1"/>
-    <col min="7" max="9" width="10.83203125" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="27.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="22.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="24.6640625" collapsed="true"/>
+    <col min="6" max="6" style="2" width="10.83203125" collapsed="true"/>
+    <col min="7" max="9" style="1" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -981,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>10</v>
@@ -1005,7 +1057,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>10</v>
@@ -1029,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
@@ -1065,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>10</v>
@@ -1089,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>10</v>
@@ -1137,7 +1189,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>10</v>
@@ -1161,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>10</v>
@@ -1197,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>10</v>
@@ -1217,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>10</v>
@@ -1237,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>10</v>
@@ -1257,7 +1309,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>10</v>
@@ -1277,7 +1329,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>10</v>
@@ -1297,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>10</v>
@@ -1317,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>10</v>
@@ -1621,7 +1673,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>10</v>
@@ -1795,7 +1847,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>10</v>
@@ -1819,7 +1871,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>10</v>
@@ -1867,7 +1919,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>10</v>

--- a/testSaltCMS.xlsx
+++ b/testSaltCMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fendyridwan/Documents/Project/SaltProject/SaltMediaCMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA6CF2E-7CEE-0041-A2BD-815E9B006768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F480553-A631-CB4A-8AE3-4DFBDEEF938A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{8C5BF09D-1B0E-9D4F-A172-04A3CADB82BB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="138">
   <si>
     <t>Module</t>
   </si>
@@ -313,12 +313,6 @@
   </si>
   <si>
     <t>User is not able to login with invalid password</t>
-  </si>
-  <si>
-    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/A_001_LoginwithValidCredential.jpg</t>
-  </si>
-  <si>
-    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/A_002_LoginwithInvalidEmail.jpg</t>
   </si>
   <si>
     <t>Input title
@@ -402,10 +396,79 @@
     <t>Voucher</t>
   </si>
   <si>
-    <t>Uncompleted</t>
+    <t>J_001_DisplayofPlaylistList</t>
+  </si>
+  <si>
+    <t>J_002_CreateVoucherManual</t>
+  </si>
+  <si>
+    <t>J_003_CreateVoucherAutomatically</t>
+  </si>
+  <si>
+    <t>J_004_EditVoucherName</t>
+  </si>
+  <si>
+    <t>J_005_EditVoucherToAddVoucherCodeManually</t>
+  </si>
+  <si>
+    <t>J_006_EditVoucherToAddVoucherCodeAutomatically</t>
+  </si>
+  <si>
+    <t>J_007_RedeemVoucher</t>
+  </si>
+  <si>
+    <t>Check for create button, table list and search exitence</t>
+  </si>
+  <si>
+    <t>Create new voucher with input the code manually</t>
+  </si>
+  <si>
+    <t>Create new voucher with input the code automatically</t>
+  </si>
+  <si>
+    <t>Edit vouchers name</t>
+  </si>
+  <si>
+    <t>Edit voucher to add voucher code manually</t>
+  </si>
+  <si>
+    <t>Edit voucher to add voucher code automatically</t>
+  </si>
+  <si>
+    <t>Redeem voucher</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/J_004_EditVoucherName.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/A_002_LoginwithInvalidEmail.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/D_002_CreateNewSeries.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/J_007_RedeemVoucher.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/I_002_CreateNewPackage.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/J_002_CreateVoucherManual.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/J_003_CreateVoucherAutomatically.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/J_005_EditVoucherToAddVoucherCodeManually.jpg</t>
+  </si>
+  <si>
+    <t>http://3.1.15.19/view/SaltMedia/job/SaltMediaCMS1/ws/screenshot/J_006_EditVoucherToAddVoucherCodeAutomatically.jpg</t>
   </si>
 </sst>
 </file>
@@ -413,7 +476,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -466,6 +529,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -487,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -573,11 +643,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -652,11 +735,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1057,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315B264C-E7B3-9E4E-A6DC-BDFA36B939E5}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>10</v>
@@ -1147,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>10</v>
@@ -1171,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
@@ -1222,7 +1353,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>41</v>
@@ -1246,7 +1377,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>44</v>
@@ -1270,7 +1401,7 @@
         <v>46</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>47</v>
@@ -1294,7 +1425,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>50</v>
@@ -1484,7 +1615,7 @@
         <v>66</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>53</v>
@@ -1504,7 +1635,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>67</v>
@@ -1524,7 +1655,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>68</v>
@@ -1544,7 +1675,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>69</v>
@@ -1580,7 +1711,7 @@
         <v>70</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>71</v>
@@ -1600,7 +1731,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>72</v>
@@ -1620,7 +1751,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>73</v>
@@ -1640,7 +1771,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>74</v>
@@ -1676,7 +1807,7 @@
         <v>75</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1694,7 +1825,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1712,7 +1843,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1730,7 +1861,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1784,7 +1915,7 @@
     <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>79</v>
@@ -1804,7 +1935,7 @@
     <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>80</v>
@@ -1824,7 +1955,7 @@
     <row r="38" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
       <c r="B38" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>81</v>
@@ -1860,7 +1991,7 @@
         <v>82</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>78</v>
@@ -1880,7 +2011,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -1898,7 +2029,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>83</v>
@@ -2028,62 +2159,76 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="15"/>
-    </row>
-    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:9" ht="43" x14ac:dyDescent="0.2">
+      <c r="A49" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A50" s="30"/>
+      <c r="B50" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="12" t="s">
+      <c r="C50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="1:9" ht="43" x14ac:dyDescent="0.2">
+      <c r="A51" s="30"/>
+      <c r="B51" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="12" t="s">
-        <v>115</v>
+      <c r="C51" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>10</v>
@@ -2091,10 +2236,94 @@
       <c r="H51" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="30"/>
+      <c r="B52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A53" s="30"/>
+      <c r="B53" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A54" s="30"/>
+      <c r="B54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="30"/>
+      <c r="B55" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A2:A4"/>
@@ -2104,30 +2333,31 @@
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A49:A55"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G47 G52:G1048576">
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="FAIL">
+  <conditionalFormatting sqref="G1:G47 G56:G1048576">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49:G51">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="FAIL">
+  <conditionalFormatting sqref="G48">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",G48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",G48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:G55">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",G49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",G48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",G48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2136,7 +2366,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{3D5FA29F-64E6-8E48-ABEE-FB079A869472}">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{3D5FA29F-64E6-8E48-ABEE-FB079A869472}">
             <xm:f>NOT(ISERROR(SEARCH("-",G1)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -2150,27 +2380,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G1:G47 G52:G1048576</xm:sqref>
+          <xm:sqref>G1:G47 G56:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{9525CCBA-6179-F74B-B7CB-3F66EDF328CA}">
-            <xm:f>NOT(ISERROR(SEARCH("-",G49)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G49:G51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{E9E65C16-B03C-BD48-897A-477440BEABD0}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{E9E65C16-B03C-BD48-897A-477440BEABD0}">
             <xm:f>NOT(ISERROR(SEARCH("-",G48)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -2186,6 +2399,23 @@
           </x14:cfRule>
           <xm:sqref>G48</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{08C953A0-7514-E44F-B18A-8B7E745E4B62}">
+            <xm:f>NOT(ISERROR(SEARCH("-",G49)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G49:G55</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
